--- a/リザルト画面(SPLIT)設計書_v0.2.xlsx
+++ b/リザルト画面(SPLIT)設計書_v0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>土日PJアプリ</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>土日Project</t>
-  </si>
-  <si>
-    <t>松井</t>
   </si>
   <si>
     <t>新規作成</t>
@@ -383,6 +380,53 @@
     <t>ＦＢ投稿画面に遷移する</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0.2版</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>高須賀</t>
+    <rPh sb="0" eb="3">
+      <t>タカスガ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>改版履歴参照</t>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・プログラム設計シ＾ト
+・レイアウト設計シート
+追加</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,6 +491,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -486,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -761,25 +812,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -927,6 +989,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -951,22 +1025,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2395,123 +2473,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B6:G33"/>
+  <dimension ref="B6:G34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8.625"/>
-    <col min="3" max="5" width="11"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:7" ht="25.5">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="2:7" ht="25.5">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="2:7" ht="25.5">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="13" spans="2:7">
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
+      <c r="E13" s="67" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>42541</v>
+      <c r="E14" s="2">
+        <v>42554</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="21">
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="2:7" ht="21">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="5">
+        <v>42554</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="6">
-        <v>42541</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C33" s="5">
+        <v>42549</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E34" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E32:G32"/>
+  <mergeCells count="8">
     <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="E32:G32"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2524,54 +2621,65 @@
   <dimension ref="B4:E6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8.625"/>
-    <col min="3" max="3" width="11"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.625"/>
     <col min="5" max="5" width="45.5"/>
     <col min="6" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="4" t="str">
+        <f>表紙!B33</f>
+        <v>0.1版</v>
+      </c>
+      <c r="C5" s="5">
+        <f>表紙!C33</f>
+        <v>42549</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>表紙!D33</f>
+        <v>鈴木</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="40.5">
+      <c r="B6" s="4" t="str">
         <f>表紙!B32</f>
-        <v>0.1版</v>
-      </c>
-      <c r="C5" s="6">
+        <v>0.2版</v>
+      </c>
+      <c r="C6" s="5">
         <f>表紙!C32</f>
-        <v>42541</v>
-      </c>
-      <c r="D5" s="5" t="str">
+        <v>42554</v>
+      </c>
+      <c r="D6" s="4" t="str">
         <f>表紙!D32</f>
-        <v>松井</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>高須賀</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -2602,244 +2710,244 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="27">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="11" t="s">
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="12">
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="12">
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="12">
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="12">
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="I10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="12">
+      <c r="I11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="13">
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2867,141 +2975,141 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6">
-      <c r="B5" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>IFERROR(VLOOKUP(B6,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="7" t="str">
         <f>IFERROR(VLOOKUP(B6,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v>RESULT</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>95</v>
+      <c r="E6" s="50" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="54">
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>IFERROR(VLOOKUP(B7,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="7" t="str">
         <f>IFERROR(VLOOKUP(B7,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v>SCORE</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>43</v>
+      <c r="E7" s="52" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="94.5">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <f>IFERROR(VLOOKUP(B8,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="7" t="str">
         <f>IFERROR(VLOOKUP(B8,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v>レベル</v>
       </c>
-      <c r="E8" s="62" t="s">
-        <v>94</v>
+      <c r="E8" s="53" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f>IFERROR(VLOOKUP(B9,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="7" t="str">
         <f>IFERROR(VLOOKUP(B9,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v>REPLAYボタン</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f>IFERROR(VLOOKUP(B10,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="7" t="str">
         <f>IFERROR(VLOOKUP(B10,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v>Twitter</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="54" t="s">
         <v>96</v>
       </c>
+      <c r="F10" s="51" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f>IFERROR(VLOOKUP(B11,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="7" t="str">
         <f>IFERROR(VLOOKUP(B11,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v>FBボタン</v>
       </c>
-      <c r="E11" s="63" t="s">
-        <v>98</v>
+      <c r="E11" s="54" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="14"/>
-      <c r="C12" s="8" t="str">
+      <c r="B12" s="13"/>
+      <c r="C12" s="7" t="str">
         <f>IFERROR(VLOOKUP(B12,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="7" t="str">
         <f>IFERROR(VLOOKUP(B12,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="str">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="str">
         <f>IFERROR(VLOOKUP(B13,コンポーネント!$B$6:$I$14,8,1)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D13" s="15" t="str">
+      <c r="D13" s="14" t="str">
         <f>IFERROR(VLOOKUP(B13,コンポーネント!$B$6:$I$14,2,1)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -3017,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3033,131 +3141,131 @@
     <col min="8" max="8" width="75.625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.85" customHeight="1">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:8" ht="14.85" customHeight="1" thickBot="1">
+      <c r="B2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="29" t="s">
+    </row>
+    <row r="3" spans="2:8" ht="14.25" thickBot="1">
+      <c r="B3" s="60" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="57" t="s">
+      <c r="C3" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="E3" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="34" t="s">
+    </row>
+    <row r="4" spans="2:8" ht="49.15" customHeight="1" thickBot="1">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="49.15" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="H4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="37" t="s">
+    </row>
+    <row r="5" spans="2:8" ht="49.9" customHeight="1" thickBot="1">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="49.9" customHeight="1">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="H5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="39" t="s">
+    </row>
+    <row r="6" spans="2:8" ht="33.950000000000003" customHeight="1" thickBot="1">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="33.950000000000003" customHeight="1">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="H6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="39" t="s">
+    </row>
+    <row r="7" spans="2:8" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="51.75" customHeight="1">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="H7" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="99" customHeight="1" thickBot="1">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="99" customHeight="1">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="43" t="s">
+      <c r="H8" s="43" t="s">
         <v>84</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3180,9 +3288,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3192,36 +3302,37 @@
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:3" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B2" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="45" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="47" t="s">
+    <row r="4" spans="2:3" ht="27">
+      <c r="B4" s="45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="27">
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="37" t="s">
+    </row>
+    <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="B5" s="47" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="48" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3258,102 +3369,102 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="27">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="27">
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="26" t="s">
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="27" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5" t="s">
+      <c r="C18" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/リザルト画面(SPLIT)設計書_v0.2.xlsx
+++ b/リザルト画面(SPLIT)設計書_v0.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="583"/>
+    <workbookView xWindow="1640" yWindow="0" windowWidth="22240" windowHeight="14400" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,11 @@
     <sheet name="レイアウト設計" sheetId="7" r:id="rId6"/>
     <sheet name="説明" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="177">
   <si>
     <t>土日PJアプリ</t>
-  </si>
-  <si>
-    <t>PLAY画面（SPLIT）　画面設計書</t>
   </si>
   <si>
     <t>Miikend-JP</t>
@@ -148,21 +148,6 @@
     <t>ボタンの形、大きさ、統一感を持たせる</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>イベント内容</t>
-  </si>
-  <si>
-    <t>仕様書ID:SPLIT-07
-Result画面では、以下の表示を行うこと。
-・割った薪の数（個）
-・○○レベル（○内は下記で規定）</t>
-  </si>
-  <si>
-    <t>再プレイボタンが押下された場合、プレイ画面に遷移すること。</t>
-  </si>
-  <si>
     <t>管理番号</t>
   </si>
   <si>
@@ -214,196 +199,41 @@
     <t>メソッド名</t>
   </si>
   <si>
-    <t>動作タイミング</t>
-  </si>
-  <si>
     <t>フィールド [型, 変数名]</t>
   </si>
   <si>
     <t>動作</t>
   </si>
   <si>
-    <t>MainActivity</t>
-  </si>
-  <si>
     <t>onCreate</t>
   </si>
   <si>
-    <t>メインアクティビティ生成時</t>
-  </si>
-  <si>
-    <t>RelativeLayout</t>
-  </si>
-  <si>
-    <t>main_layout</t>
-  </si>
-  <si>
-    <t>findViewById()でRelativeLayoutをレイアウトファイルから読み込む。</t>
-  </si>
-  <si>
-    <t>TextView</t>
-  </si>
-  <si>
-    <t>result_text,
-score_text,
-level_text</t>
-  </si>
-  <si>
-    <t>findViewById()でID01→result、,ID02→score, ID03→levelとしてTextViewを設置する。
-score_textにはscoreの数値を代入する。
-level_textはscoreの数値に応じて条件分岐をする。</t>
-  </si>
-  <si>
-    <t>imageButton</t>
-  </si>
-  <si>
-    <t>replay_button, 
-twitter_button,
- 　facebook_button</t>
-  </si>
-  <si>
-    <t>findViewById()でID04→replay_button, ID05→twitter_button, ID06→facebook_button
-としてimageButtonを設置する。</t>
-  </si>
-  <si>
-    <t>　Intent,
-　int</t>
-  </si>
-  <si>
-    <t>Intent,
-score</t>
-  </si>
-  <si>
-    <t>リザルト画面への遷移前にスコアの数値をIntentインスタンスへ取得しておき、getIntExtra()でscoreに代入する。</t>
-  </si>
-  <si>
-    <t>setOnClickListener(clicked)</t>
-  </si>
-  <si>
-    <t>replay_button,
-twitter_button,
- 　facebook_button</t>
-  </si>
-  <si>
-    <t>各ボタンでsetOnClickListener(this)メソッドを実行する。</t>
-  </si>
-  <si>
-    <t>onClick</t>
-  </si>
-  <si>
-    <t>ボタン押下時</t>
-  </si>
-  <si>
-    <t>switch文でIDを元に処理を分岐させ、それぞれのButtonを押下した際の動作を下記のように規定する。
-・REPLAYボタン：プレイ画面の初期画面へ遷移する。[startActivity(replay)]
-・Twitter：Twitterクライアントアプリを起動する。[startActivity(twitter)]
-・FBボタン：ブラウザでFacebookのアプリを開く[startActivity(facebook)]</t>
-  </si>
-  <si>
     <t>View</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>layout_width/height=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>match_parent”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>orientation="vertical”</t>
-    </r>
-  </si>
-  <si>
-    <t>imageButton *3</t>
-  </si>
-  <si>
-    <t>REPLAY, twitter, FBボタン用の画像をdrawbleディレクトリから読み込み
-ボタン用の画像として設定する。</t>
-  </si>
-  <si>
-    <t>TextView *3</t>
-  </si>
-  <si>
-    <t>”RESULT”の初期値を代入したTextViewと初期値無しのTextViewを２つ作成する。</t>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>・0～5個：ファッション木こりレベル
-・6～9個：教えておじいさんレベル
-・10～19個：ブリキの木こりレベル
-・20～29個：与作レベル
-・30～39個：ドイツの木こりレベル
-・40～49個：カナダの木こりレベル
-・50~59個：グンマーで生活できるレベル</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>テキストを表示</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>http://devalon.biz/androidde/</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>twitter投稿画面に遷移する</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ＦＢ投稿画面に遷移する</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>鈴木</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0.2版</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>高須賀</t>
     <rPh sb="0" eb="3">
       <t>タカスガ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>改版履歴参照</t>
     <rPh sb="4" eb="6">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・プログラム設計シ＾ト
@@ -418,24 +248,606 @@
     <rPh sb="24" eb="26">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>0.2版</t>
     <rPh sb="3" eb="4">
       <t>ハン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>イベント内容</t>
+  </si>
+  <si>
+    <t>テキストを表示</t>
+  </si>
+  <si>
+    <t>仕様書ID:SPLIT-07</t>
+  </si>
+  <si>
+    <t>Result画面では、以下の表示を行うこと。</t>
+  </si>
+  <si>
+    <t>・割った薪の数（個）</t>
+  </si>
+  <si>
+    <t>・○○レベル（○内は下記で規定）</t>
+  </si>
+  <si>
+    <t>・0～5個：ファッション木こりレベル</t>
+  </si>
+  <si>
+    <t>・6～9個：教えておじいさんレベル</t>
+  </si>
+  <si>
+    <t>・10～19個：ブリキの木こりレベル</t>
+  </si>
+  <si>
+    <t>・20～29個：与作レベル</t>
+  </si>
+  <si>
+    <t>・30～39個：ドイツの木こりレベル</t>
+  </si>
+  <si>
+    <t>・40～49個：カナダの木こりレベル</t>
+  </si>
+  <si>
+    <t>・50~59個：グンマーで生活できるレベル</t>
+  </si>
+  <si>
+    <t>再プレイボタンが押下された場合、プレイ画面に遷移すること。</t>
+  </si>
+  <si>
+    <t>twitter投稿画面に遷移する</t>
+  </si>
+  <si>
+    <t>http://devalon.biz/androidde/</t>
+  </si>
+  <si>
+    <t>ＦＢ投稿画面に遷移する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Layouts</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>replayボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageButton </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitterボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageButton </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebookボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>replay</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebook</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面左下</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒダリシタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中央下部</t>
+    <rPh sb="0" eb="4">
+      <t>チュウオウカブ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面右下</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギシタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中央上部</t>
+    <rPh sb="0" eb="4">
+      <t>チュウオウジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中央付近</t>
+    <rPh sb="0" eb="4">
+      <t>チュウオウフキン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動作タイミング</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ResultActivity</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボタン押下時</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メインアクティビティ生成時</t>
+    <rPh sb="10" eb="13">
+      <t>セイセイジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>activity_result</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>replay</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>findViewById()でreplayボタンを読み込む</t>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setOnClickListener()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setOnClickListener()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>replayボタンでsetOnClickListener()メソッドを実行する</t>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setContentView()でレイアウトファイルを読み込む</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>findViewById()でtwitterボタンを読み込む</t>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebook</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>findViewById()でfaebookボタンを読み込む</t>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebook</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitterボタンでsetOnClickListener()メソッドを実行する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebookボタンでsetOnClickListener()メソッドを実行する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>onClick</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>複数ボタンのクリックを制御</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>onClick</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>replayボタン押下時</t>
+    <rPh sb="9" eb="12">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ダイアログを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>replayボタンが押された時</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setTitle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setMessage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコアを破棄して再度プレイしますか？</t>
+    <rPh sb="4" eb="6">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setPositiveButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>再プレイ</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OnClick</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>再プレイが押された時</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setNegativeButton</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OnClick()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>finish()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OnClick</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャンセルボタンが押された時</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ダイアログを閉じる</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitterボタンが押された時</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebookボタンが押された時</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>twitter投稿画面へ遷移</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>facebook投稿画面へ遷移</t>
+    <rPh sb="8" eb="12">
+      <t>トウコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>onBackPressed()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ResultActivity
+ImageButton
+AlertDialog.Builder
+ImageButton
+AlertDialog.Builder</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>KEYCODE_BACKが押された時</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>KEYCODE_BACKが押された時</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戻るボタンが押されたとき、戻る動作とは別の動作をさせる。ダイアログを表示</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setTitle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコアを破棄してTOP
+画面に戻ります</t>
+    <rPh sb="4" eb="6">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setNegativeButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OKが押された時</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボタン押下でレザルトアクティビティを終了しプレイ画面へ遷移する</t>
+    <rPh sb="18" eb="20">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルトアクティビティを終了しTOP画面へ遷移する</t>
+    <rPh sb="12" eb="14">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャンセルが押された時</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>onClick</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TextView</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ImageView</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ImageView</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LinearLayout(Vertical</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レザルト画面（SPLIT）　画面設計書</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0.3版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2016/0811</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大西</t>
+    <rPh sb="0" eb="2">
+      <t>オオニシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改変履歴参照</t>
+    <rPh sb="0" eb="6">
+      <t>カイヘンリレキサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プログラム設計、レイアウト設計に文言を追記</t>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -458,32 +870,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -498,8 +888,24 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,8 +942,14 @@
         <bgColor rgb="FFDCE6F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -657,15 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -724,17 +1127,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -809,6 +1201,83 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -818,24 +1287,58 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,115 +1393,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,38 +1585,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2188,6 +2821,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="clip_image001.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2768600" y="3721100"/>
+          <a:ext cx="4127500" cy="6718300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2472,135 +3165,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.625"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.625"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" ht="25.5">
-      <c r="B6" s="57" t="s">
+    <row r="6" spans="2:7" ht="32">
+      <c r="B6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="2:7" ht="25.5">
-      <c r="B7" s="57" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="2:7" ht="32">
+      <c r="B7" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="2:7" ht="32">
+      <c r="B8" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="2:7" ht="25.5">
-      <c r="B8" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="13" spans="2:7">
       <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2">
         <v>42554</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="21">
-      <c r="C21" s="58" t="s">
+    <row r="21" spans="2:7" ht="25">
+      <c r="C21" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+    </row>
+    <row r="22" spans="2:7" ht="25">
+      <c r="C22" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-    </row>
-    <row r="22" spans="2:7" ht="21">
-      <c r="C22" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="3"/>
     </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84"/>
+    </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="63" t="s">
-        <v>99</v>
+      <c r="B32" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="5">
         <v>42554</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="D32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="5">
         <v>42549</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="D33" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="B6:G6"/>
@@ -2609,42 +3315,47 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.625"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625"/>
-    <col min="5" max="5" width="45.5"/>
-    <col min="6" max="1025" width="8.625"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
       <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -2661,10 +3372,10 @@
         <v>鈴木</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="40.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="41">
       <c r="B6" s="4" t="str">
         <f>表紙!B32</f>
         <v>0.2版</v>
@@ -2677,62 +3388,73 @@
         <f>表紙!D32</f>
         <v>高須賀</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>102</v>
+      <c r="E6" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="110">
+        <v>42593</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.625"/>
-    <col min="2" max="2" width="14"/>
-    <col min="3" max="3" width="21.375"/>
-    <col min="4" max="4" width="11.125"/>
-    <col min="5" max="6" width="13.625"/>
-    <col min="7" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75"/>
-    <col min="9" max="9" width="11.5"/>
-    <col min="10" max="1025" width="8.625"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="27">
+    <row r="5" spans="2:9" ht="41">
       <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2740,22 +3462,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
@@ -2766,22 +3488,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -2792,22 +3514,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="12">
         <v>3</v>
@@ -2818,22 +3540,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="I9" s="12">
         <v>4</v>
@@ -2844,22 +3566,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="I10" s="12">
         <v>5</v>
@@ -2870,22 +3592,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="I11" s="12">
         <v>6</v>
@@ -2927,544 +3649,1125 @@
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="8.625"/>
-    <col min="4" max="4" width="20.25"/>
-    <col min="5" max="5" width="71.25"/>
-    <col min="6" max="1025" width="8.625"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6">
-      <c r="B5" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="11">
+    <row r="5" spans="1:6">
+      <c r="B5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <f>IFERROR(VLOOKUP(B6,コンポーネント!$B$6:$I$14,8,1)," ")</f>
+      <c r="C6" s="34">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B6,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v>RESULT</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="54">
-      <c r="B7" s="11">
+      <c r="D6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <f>IFERROR(VLOOKUP(B7,コンポーネント!$B$6:$I$14,8,1)," ")</f>
+      <c r="C7" s="89">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B7,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v>SCORE</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="94.5">
-      <c r="B8" s="11">
+      <c r="D7" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="92"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="92"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <f>IFERROR(VLOOKUP(B8,コンポーネント!$B$6:$I$14,8,1)," ")</f>
+      <c r="C11" s="89">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B8,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v>レベル</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="11">
+      <c r="D11" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="92"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="85"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="92"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="92"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="34">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
-        <f>IFERROR(VLOOKUP(B9,コンポーネント!$B$6:$I$14,8,1)," ")</f>
+      <c r="C18" s="34">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B9,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v>REPLAYボタン</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="13">
+      <c r="D18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="36">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
-        <f>IFERROR(VLOOKUP(B10,コンポーネント!$B$6:$I$14,8,1)," ")</f>
+      <c r="C19" s="34">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B10,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v>Twitter</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="13">
+      <c r="D19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
-        <f>IFERROR(VLOOKUP(B11,コンポーネント!$B$6:$I$14,8,1)," ")</f>
+      <c r="C20" s="34">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B11,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v>FBボタン</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="13"/>
-      <c r="C12" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B12,コンポーネント!$B$6:$I$14,8,1)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>IFERROR(VLOOKUP(B12,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="54"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(B13,コンポーネント!$B$6:$I$14,8,1)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(B13,コンポーネント!$B$6:$I$14,2,1)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="19"/>
+      <c r="D20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="13"/>
+      <c r="C21" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="13"/>
+      <c r="C22" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="F11:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.75"/>
-    <col min="2" max="2" width="19.375"/>
-    <col min="3" max="3" width="20.875"/>
-    <col min="4" max="4" width="27.5"/>
-    <col min="5" max="5" width="26.5"/>
-    <col min="6" max="6" width="17.875"/>
-    <col min="7" max="7" width="19.375"/>
-    <col min="8" max="8" width="75.625"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.85" customHeight="1" thickBot="1">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1"/>
+    <row r="2" spans="1:9" ht="18" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="101"/>
+      <c r="I2" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" customHeight="1">
+      <c r="B3" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="14.25" thickBot="1">
-      <c r="B3" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="49.15" customHeight="1" thickBot="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="49.9" customHeight="1" thickBot="1">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="51.75" customHeight="1" thickBot="1">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="99" customHeight="1" thickBot="1">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>84</v>
-      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" customHeight="1">
+      <c r="A4" s="99"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="99"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="99"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="99"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="99"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="99"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1">
+      <c r="A10" s="99"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="99"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="99"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:9" ht="29">
+      <c r="A13" s="99"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="61"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="99"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="61"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="99"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="99"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="99"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="99"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="99"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="94"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="94"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="76"/>
+      <c r="F21" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" ht="32" customHeight="1">
+      <c r="B22" s="94"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="76"/>
+      <c r="G22" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="94"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="70"/>
+      <c r="G23" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="94"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="76"/>
+      <c r="G24" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="94"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="94"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" thickBot="1">
+      <c r="B27" s="95"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="C28" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C3:C27"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.625"/>
-    <col min="2" max="2" width="18.75"/>
-    <col min="3" max="3" width="68.625"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B2" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="44" t="s">
+    <row r="1" spans="2:8" ht="18" thickBot="1">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+    </row>
+    <row r="2" spans="2:8" ht="18" thickBot="1">
+      <c r="B2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="104" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="45" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="H2" s="48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="27">
-      <c r="B4" s="45" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18.5" customHeight="1">
+      <c r="B5" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="47" t="s">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" t="s">
         <v>91</v>
       </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" thickBot="1">
+      <c r="B8" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <mergeCells count="16">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.625"/>
-    <col min="2" max="2" width="13"/>
-    <col min="3" max="3" width="18.75"/>
-    <col min="4" max="4" width="20.25"/>
-    <col min="5" max="5" width="12.625"/>
-    <col min="6" max="6" width="28"/>
-    <col min="7" max="7" width="22.5"/>
-    <col min="8" max="8" width="18.5"/>
-    <col min="9" max="9" width="28"/>
-    <col min="10" max="1025" width="8.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="5" spans="2:9" ht="27">
+    <row r="5" spans="2:9" ht="41">
       <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="27">
+    </row>
+    <row r="6" spans="2:9" ht="89">
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C16" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>